--- a/src/NEW/vmesto_csv_PROBNIK.xlsx
+++ b/src/NEW/vmesto_csv_PROBNIK.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eduard\Programming\GitHub\parser_by_r_NOT_SELENIUM\src\NEW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Eduard\Programming\GitHub\parser_by_r_NOT_SELENIUM\src\NEW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD8DC90B-C183-411D-B356-DC7A2D5223D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E996E5-8781-4A9F-BF01-54D0CE0619BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="2910" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>_ID_</t>
   </si>
@@ -57,33 +57,82 @@
     <t>_SORT_ORDER_</t>
   </si>
   <si>
-    <t>&lt;p&gt;&lt;span style="color: rgb(33, 37, 41); font-family: &amp;quot;PT Sans&amp;quot;, sans-serif; font-size: 17px; background-color: rgb(250, 250, 250);"&gt;***[[ ###### ]]***&lt;/span&gt;&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Калькулятор МС2 BCD-886, 16-разрядный, бухгалтерский</t>
-  </si>
-  <si>
-    <t>14-5439</t>
-  </si>
-  <si>
-    <t>8818</t>
-  </si>
-  <si>
     <t>_ATTRIBUTES_</t>
   </si>
   <si>
-    <t>Канцелярские товары</t>
-  </si>
-  <si>
-    <t>Офисные принадлежности</t>
-  </si>
-  <si>
-    <t>Процессор|No. of Cores|8
-Память|test 1|32ГБ
-Экран|Разрешение экрана|1080x1280</t>
-  </si>
-  <si>
-    <t>США</t>
+    <t>7747040</t>
+  </si>
+  <si>
+    <t>Бумага офисная</t>
+  </si>
+  <si>
+    <t>14-6238</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Бумага писчая</t>
+  </si>
+  <si>
+    <t>Бумага А4 писчая, 65 г/кв.м, 500 листов в пачке, 5 пачек в коробке</t>
+  </si>
+  <si>
+    <t>257.22</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Starless (Россия)</t>
+  </si>
+  <si>
+    <t>1.|Бренд|Starless
+2.|Формат|A4
+3.|Плотность бумаги|65 г/кв.м
+4.|Цвет|белый
+5.|Количество листов в пачке|500 шт</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="color: rgb(33, 37, 41); font-family: &amp;quot;PT Sans&amp;quot;, sans-serif; font-size: 17px; background-color: rgb(250, 250, 250);"&gt;Бумага IPE 65 разработана и протестирована для использования на персональных матричных и лазерных принтерах, ризографах (дубликаторах), офсетных и флексомашинах. Оптимальное сочетание цены и качества. Экономичная и экологически чистая бумага, производится без оптических отбеливателей, хлора и кислот - безопасна для детского творчества и здоровья. Оттенок бумаги максимально удобен для чтения, снижает нагрузку на зрение при работе с документами на бумажных носителях.&lt;/span&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>28120</t>
+  </si>
+  <si>
+    <t>17-0385</t>
+  </si>
+  <si>
+    <t>Контейнеры</t>
+  </si>
+  <si>
+    <t>Контейнеры для холодного|Контейнеры для холодного прямоугольные, крышка отдельно</t>
+  </si>
+  <si>
+    <t>Контейнер 375 мл, 126х126х51 мм, без крышки, прозрачный, в упаковке 500 штук</t>
+  </si>
+  <si>
+    <t>отсутствует (Россия)</t>
+  </si>
+  <si>
+    <t>4.56</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>1.|Материал|ПЭТ
+2.|Размер, мм|126x126x51
+3.|Объём, мл|375
+4.|Форма|Квадратная
+5.|Количество секций|1
+6.|Цвет|прозрачный</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="color: rgb(33, 37, 41); font-family: &amp;quot;PT Sans&amp;quot;, sans-serif; font-size: 17px; background-color: rgb(250, 250, 250);"&gt;Контейнер серии СпК-1212 объемом 375 мл изготовлен из ПЭТ прозрачного цвета, предназначен для фасовки салатов, десертов, овощей, солений, холодных закусок. Размер контейнера 126х126х51 мм. К контейнеру подойдет крышка арт. 17-0268. В упаковке 500 штук.&lt;/span&gt;&lt;br&gt;&lt;/p&gt;</t>
   </si>
 </sst>
 </file>
@@ -142,14 +191,14 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -432,11 +481,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,7 +521,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>8</v>
@@ -481,42 +530,78 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="195" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:11" ht="240" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="3">
-        <v>1</v>
-      </c>
-      <c r="H2" s="5">
-        <v>83</v>
-      </c>
       <c r="I2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="3">
-        <v>5</v>
+        <v>20</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="300" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>